--- a/fechamento_2021/fechamento_dezembro/PositivoBiofastDezembro.xlsx
+++ b/fechamento_2021/fechamento_dezembro/PositivoBiofastDezembro.xlsx
@@ -1,19 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\d788796\Documents\Uipath\rpa_esus_edge\fechamento_2021\fechamento_dezembro\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8169B41C-0409-455C-9CD7-51607FFC1D10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9302"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{B3F09135-BA36-4C90-962A-E265BFEDD43F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13740"/>
   </bookViews>
   <sheets>
-    <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
+    <sheet name="Plan1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -318,7 +312,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -444,7 +438,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -496,7 +490,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -690,18 +684,18 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FBA8F450-6A56-432A-BD20-1CC3D62EC438}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:BI17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -956,28 +950,28 @@
     </row>
     <row r="2" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
-        <v>3521107310975</v>
+        <v>3521107415086</v>
       </c>
       <c r="B2" s="2">
-        <v>44553</v>
+        <v>44547</v>
       </c>
       <c r="C2" t="s">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="D2" s="2">
-        <v>30030</v>
+        <v>26864</v>
       </c>
       <c r="E2" s="2">
-        <v>44551</v>
+        <v>44545</v>
       </c>
       <c r="F2" t="s">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="G2">
-        <v>2102913937</v>
+        <v>2102894824</v>
       </c>
       <c r="H2" s="2">
-        <v>44554</v>
+        <v>44548</v>
       </c>
       <c r="I2" t="s">
         <v>2</v>
@@ -994,7 +988,7 @@
       <c r="AY2" s="4"/>
       <c r="BA2" s="5"/>
       <c r="BG2" t="s">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="BH2" t="s">
         <v>3</v>
@@ -1005,25 +999,22 @@
     </row>
     <row r="3" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
-        <v>3521107332815</v>
+        <v>3521107604645</v>
       </c>
       <c r="B3" s="2">
-        <v>44554</v>
+        <v>44558</v>
       </c>
       <c r="C3" t="s">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="D3" s="2">
-        <v>21480</v>
-      </c>
-      <c r="E3" s="2">
-        <v>44554</v>
+        <v>31774</v>
       </c>
       <c r="F3" t="s">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="G3">
-        <v>2102922449</v>
+        <v>2102915917</v>
       </c>
       <c r="H3" s="2">
         <v>44554</v>
@@ -1043,10 +1034,10 @@
       <c r="AY3" s="4"/>
       <c r="BA3" s="5"/>
       <c r="BG3" t="s">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="BH3" t="s">
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="BI3" t="s">
         <v>4</v>
@@ -1054,34 +1045,34 @@
     </row>
     <row r="4" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
-        <v>3521107348891</v>
+        <v>3521107883171</v>
       </c>
       <c r="B4" s="2">
-        <v>44554</v>
+        <v>44541</v>
       </c>
       <c r="C4" t="s">
-        <v>7</v>
+        <v>33</v>
       </c>
       <c r="D4" s="2">
-        <v>36679</v>
+        <v>31393</v>
       </c>
       <c r="E4" s="2">
-        <v>44553</v>
+        <v>44538</v>
       </c>
       <c r="F4" t="s">
-        <v>8</v>
+        <v>34</v>
       </c>
       <c r="G4">
-        <v>2102920852</v>
+        <v>2102897108</v>
       </c>
       <c r="H4" s="2">
-        <v>44554</v>
+        <v>44543</v>
       </c>
       <c r="I4" t="s">
         <v>2</v>
       </c>
       <c r="J4" s="2">
-        <v>44554</v>
+        <v>44541</v>
       </c>
       <c r="L4" t="s">
         <v>9</v>
@@ -1100,14 +1091,14 @@
         <v>10</v>
       </c>
       <c r="AN4" s="2">
-        <v>44554</v>
+        <v>44541</v>
       </c>
       <c r="AO4" s="5"/>
       <c r="AS4" s="4"/>
       <c r="AY4" s="4"/>
       <c r="BA4" s="5"/>
       <c r="BG4" t="s">
-        <v>7</v>
+        <v>33</v>
       </c>
       <c r="BH4" t="s">
         <v>3</v>
@@ -1118,37 +1109,31 @@
     </row>
     <row r="5" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
-        <v>3521107352378</v>
+        <v>3521107310975</v>
       </c>
       <c r="B5" s="2">
-        <v>44554</v>
+        <v>44553</v>
       </c>
       <c r="C5" t="s">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="D5" s="2">
-        <v>20952</v>
+        <v>30030</v>
       </c>
       <c r="E5" s="2">
-        <v>44553</v>
+        <v>44551</v>
       </c>
       <c r="F5" t="s">
-        <v>12</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>2102920850</v>
+        <v>2102913937</v>
       </c>
       <c r="H5" s="2">
         <v>44554</v>
       </c>
       <c r="I5" t="s">
         <v>2</v>
-      </c>
-      <c r="J5" s="2">
-        <v>44554</v>
-      </c>
-      <c r="L5" t="s">
-        <v>9</v>
       </c>
       <c r="M5" s="3"/>
       <c r="P5" s="4"/>
@@ -1157,21 +1142,12 @@
       <c r="X5" s="5"/>
       <c r="AB5" s="4"/>
       <c r="AE5" s="4"/>
-      <c r="AL5" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="AM5" t="s">
-        <v>10</v>
-      </c>
-      <c r="AN5" s="2">
-        <v>44554</v>
-      </c>
-      <c r="AO5" s="5"/>
+      <c r="AL5" s="4"/>
       <c r="AS5" s="4"/>
       <c r="AY5" s="4"/>
       <c r="BA5" s="5"/>
       <c r="BG5" t="s">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="BH5" t="s">
         <v>3</v>
@@ -1182,25 +1158,25 @@
     </row>
     <row r="6" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
-        <v>3521107369636</v>
+        <v>3521107348891</v>
       </c>
       <c r="B6" s="2">
+        <v>44554</v>
+      </c>
+      <c r="C6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D6" s="2">
+        <v>36679</v>
+      </c>
+      <c r="E6" s="2">
         <v>44553</v>
       </c>
-      <c r="C6" t="s">
-        <v>13</v>
-      </c>
-      <c r="D6" s="2">
-        <v>23498</v>
-      </c>
-      <c r="E6" s="2">
-        <v>44548</v>
-      </c>
       <c r="F6" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="G6">
-        <v>2102862294</v>
+        <v>2102920852</v>
       </c>
       <c r="H6" s="2">
         <v>44554</v>
@@ -1209,7 +1185,7 @@
         <v>2</v>
       </c>
       <c r="J6" s="2">
-        <v>44553</v>
+        <v>44554</v>
       </c>
       <c r="L6" t="s">
         <v>9</v>
@@ -1228,14 +1204,14 @@
         <v>10</v>
       </c>
       <c r="AN6" s="2">
-        <v>44553</v>
+        <v>44554</v>
       </c>
       <c r="AO6" s="5"/>
       <c r="AS6" s="4"/>
       <c r="AY6" s="4"/>
       <c r="BA6" s="5"/>
       <c r="BG6" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="BH6" t="s">
         <v>3</v>
@@ -1246,37 +1222,28 @@
     </row>
     <row r="7" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
-        <v>3521107377469</v>
+        <v>3521107843213</v>
       </c>
       <c r="B7" s="2">
+        <v>44559</v>
+      </c>
+      <c r="C7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D7" s="2">
+        <v>36679</v>
+      </c>
+      <c r="F7" t="s">
+        <v>31</v>
+      </c>
+      <c r="G7">
+        <v>2102920852</v>
+      </c>
+      <c r="H7" s="2">
         <v>44554</v>
-      </c>
-      <c r="C7" t="s">
-        <v>15</v>
-      </c>
-      <c r="D7" s="2">
-        <v>30972</v>
-      </c>
-      <c r="E7" s="2">
-        <v>44548</v>
-      </c>
-      <c r="F7" t="s">
-        <v>16</v>
-      </c>
-      <c r="G7">
-        <v>2102894756</v>
-      </c>
-      <c r="H7" s="2">
-        <v>44551</v>
       </c>
       <c r="I7" t="s">
         <v>2</v>
-      </c>
-      <c r="J7" s="2">
-        <v>44550</v>
-      </c>
-      <c r="L7" t="s">
-        <v>9</v>
       </c>
       <c r="M7" s="3"/>
       <c r="P7" s="4"/>
@@ -1285,24 +1252,15 @@
       <c r="X7" s="5"/>
       <c r="AB7" s="4"/>
       <c r="AE7" s="4"/>
-      <c r="AL7" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="AM7" t="s">
-        <v>10</v>
-      </c>
-      <c r="AN7" s="2">
-        <v>44550</v>
-      </c>
-      <c r="AO7" s="5"/>
+      <c r="AL7" s="4"/>
       <c r="AS7" s="4"/>
       <c r="AY7" s="4"/>
       <c r="BA7" s="5"/>
       <c r="BG7" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="BH7" t="s">
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="BI7" t="s">
         <v>4</v>
@@ -1310,28 +1268,25 @@
     </row>
     <row r="8" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
-        <v>3521107415086</v>
+        <v>3521107839460</v>
       </c>
       <c r="B8" s="2">
-        <v>44547</v>
+        <v>44559</v>
       </c>
       <c r="C8" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="D8" s="2">
-        <v>26864</v>
-      </c>
-      <c r="E8" s="2">
-        <v>44545</v>
+        <v>37110</v>
       </c>
       <c r="F8" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="G8">
-        <v>2102894824</v>
+        <v>2102921163</v>
       </c>
       <c r="H8" s="2">
-        <v>44548</v>
+        <v>44553</v>
       </c>
       <c r="I8" t="s">
         <v>2</v>
@@ -1348,10 +1303,10 @@
       <c r="AY8" s="4"/>
       <c r="BA8" s="5"/>
       <c r="BG8" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="BH8" t="s">
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="BI8" t="s">
         <v>4</v>
@@ -1359,22 +1314,22 @@
     </row>
     <row r="9" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
-        <v>3521107507134</v>
+        <v>3521107704598</v>
       </c>
       <c r="B9" s="2">
-        <v>44557</v>
+        <v>44558</v>
       </c>
       <c r="C9" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="D9" s="2">
-        <v>32697</v>
+        <v>29568</v>
       </c>
       <c r="F9" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="G9">
-        <v>2102911568</v>
+        <v>2102760910</v>
       </c>
       <c r="H9" s="2">
         <v>44551</v>
@@ -1394,7 +1349,7 @@
       <c r="AY9" s="4"/>
       <c r="BA9" s="5"/>
       <c r="BG9" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="BH9" t="s">
         <v>21</v>
@@ -1405,25 +1360,25 @@
     </row>
     <row r="10" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
-        <v>3521107604645</v>
+        <v>3521107841130</v>
       </c>
       <c r="B10" s="2">
-        <v>44558</v>
+        <v>44559</v>
       </c>
       <c r="C10" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="D10" s="2">
-        <v>31774</v>
+        <v>32139</v>
       </c>
       <c r="F10" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
       <c r="G10">
-        <v>2102915917</v>
+        <v>2102921165</v>
       </c>
       <c r="H10" s="2">
-        <v>44554</v>
+        <v>44553</v>
       </c>
       <c r="I10" t="s">
         <v>2</v>
@@ -1440,7 +1395,7 @@
       <c r="AY10" s="4"/>
       <c r="BA10" s="5"/>
       <c r="BG10" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="BH10" t="s">
         <v>21</v>
@@ -1451,28 +1406,37 @@
     </row>
     <row r="11" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
-        <v>3521107634549</v>
+        <v>3521107377469</v>
       </c>
       <c r="B11" s="2">
-        <v>44558</v>
+        <v>44554</v>
       </c>
       <c r="C11" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="D11" s="2">
-        <v>32332</v>
+        <v>30972</v>
+      </c>
+      <c r="E11" s="2">
+        <v>44548</v>
       </c>
       <c r="F11" t="s">
-        <v>25</v>
+        <v>16</v>
       </c>
       <c r="G11">
-        <v>2102850292</v>
+        <v>2102894756</v>
       </c>
       <c r="H11" s="2">
-        <v>44552</v>
+        <v>44551</v>
       </c>
       <c r="I11" t="s">
         <v>2</v>
+      </c>
+      <c r="J11" s="2">
+        <v>44550</v>
+      </c>
+      <c r="L11" t="s">
+        <v>9</v>
       </c>
       <c r="M11" s="3"/>
       <c r="P11" s="4"/>
@@ -1481,15 +1445,24 @@
       <c r="X11" s="5"/>
       <c r="AB11" s="4"/>
       <c r="AE11" s="4"/>
-      <c r="AL11" s="4"/>
+      <c r="AL11" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="AM11" t="s">
+        <v>10</v>
+      </c>
+      <c r="AN11" s="2">
+        <v>44550</v>
+      </c>
+      <c r="AO11" s="5"/>
       <c r="AS11" s="4"/>
       <c r="AY11" s="4"/>
       <c r="BA11" s="5"/>
       <c r="BG11" t="s">
-        <v>24</v>
+        <v>15</v>
       </c>
       <c r="BH11" t="s">
-        <v>21</v>
+        <v>3</v>
       </c>
       <c r="BI11" t="s">
         <v>4</v>
@@ -1497,25 +1470,25 @@
     </row>
     <row r="12" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
-        <v>3521107704598</v>
+        <v>3521107853301</v>
       </c>
       <c r="B12" s="2">
-        <v>44558</v>
+        <v>44559</v>
       </c>
       <c r="C12" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="D12" s="2">
-        <v>29568</v>
+        <v>35812</v>
       </c>
       <c r="F12" t="s">
         <v>27</v>
       </c>
       <c r="G12">
-        <v>2102760910</v>
+        <v>2102920897</v>
       </c>
       <c r="H12" s="2">
-        <v>44551</v>
+        <v>44554</v>
       </c>
       <c r="I12" t="s">
         <v>2</v>
@@ -1532,7 +1505,7 @@
       <c r="AY12" s="4"/>
       <c r="BA12" s="5"/>
       <c r="BG12" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="BH12" t="s">
         <v>21</v>
@@ -1543,25 +1516,28 @@
     </row>
     <row r="13" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
-        <v>3521107839460</v>
+        <v>3521107332815</v>
       </c>
       <c r="B13" s="2">
-        <v>44559</v>
+        <v>44554</v>
       </c>
       <c r="C13" t="s">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="D13" s="2">
-        <v>37110</v>
+        <v>21480</v>
+      </c>
+      <c r="E13" s="2">
+        <v>44554</v>
       </c>
       <c r="F13" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="G13">
-        <v>2102921163</v>
+        <v>2102922449</v>
       </c>
       <c r="H13" s="2">
-        <v>44553</v>
+        <v>44554</v>
       </c>
       <c r="I13" t="s">
         <v>2</v>
@@ -1578,10 +1554,10 @@
       <c r="AY13" s="4"/>
       <c r="BA13" s="5"/>
       <c r="BG13" t="s">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="BH13" t="s">
-        <v>21</v>
+        <v>3</v>
       </c>
       <c r="BI13" t="s">
         <v>4</v>
@@ -1589,25 +1565,25 @@
     </row>
     <row r="14" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
-        <v>3521107841130</v>
+        <v>3521107507134</v>
       </c>
       <c r="B14" s="2">
-        <v>44559</v>
+        <v>44557</v>
       </c>
       <c r="C14" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="D14" s="2">
-        <v>32139</v>
+        <v>32697</v>
       </c>
       <c r="F14" t="s">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="G14">
-        <v>2102921165</v>
+        <v>2102911568</v>
       </c>
       <c r="H14" s="2">
-        <v>44553</v>
+        <v>44551</v>
       </c>
       <c r="I14" t="s">
         <v>2</v>
@@ -1624,7 +1600,7 @@
       <c r="AY14" s="4"/>
       <c r="BA14" s="5"/>
       <c r="BG14" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="BH14" t="s">
         <v>21</v>
@@ -1635,28 +1611,37 @@
     </row>
     <row r="15" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A15" s="1">
-        <v>3521107843213</v>
+        <v>3521107369636</v>
       </c>
       <c r="B15" s="2">
-        <v>44559</v>
+        <v>44553</v>
       </c>
       <c r="C15" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="D15" s="2">
-        <v>36679</v>
+        <v>23498</v>
+      </c>
+      <c r="E15" s="2">
+        <v>44548</v>
       </c>
       <c r="F15" t="s">
-        <v>31</v>
+        <v>14</v>
       </c>
       <c r="G15">
-        <v>2102920852</v>
+        <v>2102862294</v>
       </c>
       <c r="H15" s="2">
         <v>44554</v>
       </c>
       <c r="I15" t="s">
         <v>2</v>
+      </c>
+      <c r="J15" s="2">
+        <v>44553</v>
+      </c>
+      <c r="L15" t="s">
+        <v>9</v>
       </c>
       <c r="M15" s="3"/>
       <c r="P15" s="4"/>
@@ -1665,15 +1650,24 @@
       <c r="X15" s="5"/>
       <c r="AB15" s="4"/>
       <c r="AE15" s="4"/>
-      <c r="AL15" s="4"/>
+      <c r="AL15" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="AM15" t="s">
+        <v>10</v>
+      </c>
+      <c r="AN15" s="2">
+        <v>44553</v>
+      </c>
+      <c r="AO15" s="5"/>
       <c r="AS15" s="4"/>
       <c r="AY15" s="4"/>
       <c r="BA15" s="5"/>
       <c r="BG15" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="BH15" t="s">
-        <v>21</v>
+        <v>3</v>
       </c>
       <c r="BI15" t="s">
         <v>4</v>
@@ -1681,25 +1675,25 @@
     </row>
     <row r="16" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A16" s="1">
-        <v>3521107853301</v>
+        <v>3521107634549</v>
       </c>
       <c r="B16" s="2">
-        <v>44559</v>
+        <v>44558</v>
       </c>
       <c r="C16" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="D16" s="2">
-        <v>35812</v>
+        <v>32332</v>
       </c>
       <c r="F16" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="G16">
-        <v>2102920897</v>
+        <v>2102850292</v>
       </c>
       <c r="H16" s="2">
-        <v>44554</v>
+        <v>44552</v>
       </c>
       <c r="I16" t="s">
         <v>2</v>
@@ -1716,7 +1710,7 @@
       <c r="AY16" s="4"/>
       <c r="BA16" s="5"/>
       <c r="BG16" t="s">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="BH16" t="s">
         <v>21</v>
@@ -1727,34 +1721,34 @@
     </row>
     <row r="17" spans="1:61" x14ac:dyDescent="0.25">
       <c r="A17" s="1">
-        <v>3521107883171</v>
+        <v>3521107352378</v>
       </c>
       <c r="B17" s="2">
-        <v>44541</v>
+        <v>44554</v>
       </c>
       <c r="C17" t="s">
-        <v>33</v>
+        <v>11</v>
       </c>
       <c r="D17" s="2">
-        <v>31393</v>
+        <v>20952</v>
       </c>
       <c r="E17" s="2">
-        <v>44538</v>
+        <v>44553</v>
       </c>
       <c r="F17" t="s">
-        <v>34</v>
+        <v>12</v>
       </c>
       <c r="G17">
-        <v>2102897108</v>
+        <v>2102920850</v>
       </c>
       <c r="H17" s="2">
-        <v>44543</v>
+        <v>44554</v>
       </c>
       <c r="I17" t="s">
         <v>2</v>
       </c>
       <c r="J17" s="2">
-        <v>44541</v>
+        <v>44554</v>
       </c>
       <c r="L17" t="s">
         <v>9</v>
@@ -1773,14 +1767,14 @@
         <v>10</v>
       </c>
       <c r="AN17" s="2">
-        <v>44541</v>
+        <v>44554</v>
       </c>
       <c r="AO17" s="5"/>
       <c r="AS17" s="4"/>
       <c r="AY17" s="4"/>
       <c r="BA17" s="5"/>
       <c r="BG17" t="s">
-        <v>33</v>
+        <v>11</v>
       </c>
       <c r="BH17" t="s">
         <v>3</v>
@@ -1790,6 +1784,9 @@
       </c>
     </row>
   </sheetData>
+  <sortState ref="A2:BI17">
+    <sortCondition ref="C2:C17"/>
+  </sortState>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>